--- a/regionseng/2/standard of living/expenditures.xlsx
+++ b/regionseng/2/standard of living/expenditures.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11730"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
@@ -151,7 +151,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="#,##0.0"/>
@@ -318,7 +318,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -377,21 +377,6 @@
     <xf numFmtId="166" fontId="9" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="7" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="165" fontId="9" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -415,6 +400,24 @@
     </xf>
     <xf numFmtId="165" fontId="9" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="7" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="11">
@@ -730,36 +733,39 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L70"/>
+  <dimension ref="A1:N70"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:L1"/>
+      <selection sqref="A1:N1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="50.7109375" style="1" customWidth="1"/>
     <col min="2" max="9" width="9.140625" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="1"/>
+    <col min="10" max="13" width="9.140625" style="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="30" customHeight="1">
-      <c r="A1" s="20" t="s">
+    <row r="1" spans="1:14" ht="30" customHeight="1">
+      <c r="A1" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="20"/>
-      <c r="L1" s="20"/>
-    </row>
-    <row r="2" spans="1:12" ht="15" customHeight="1">
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="28"/>
+      <c r="K1" s="28"/>
+      <c r="L1" s="28"/>
+      <c r="M1" s="28"/>
+      <c r="N1" s="28"/>
+    </row>
+    <row r="2" spans="1:14" ht="15" customHeight="1">
       <c r="A2" s="5"/>
       <c r="B2" s="6">
         <v>2011</v>
@@ -794,8 +800,14 @@
       <c r="L2" s="7">
         <v>2021</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" ht="15" customHeight="1">
+      <c r="M2" s="7">
+        <v>2022</v>
+      </c>
+      <c r="N2" s="32">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="15" customHeight="1">
       <c r="A3" s="11" t="s">
         <v>11</v>
       </c>
@@ -829,11 +841,17 @@
       <c r="K3" s="15">
         <v>67.845335770367043</v>
       </c>
-      <c r="L3" s="24">
+      <c r="L3" s="15">
         <v>77.964041572329961</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" ht="15" customHeight="1">
+      <c r="M3" s="19">
+        <v>92.973453961360136</v>
+      </c>
+      <c r="N3" s="23">
+        <v>101.69242592389988</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="15" customHeight="1">
       <c r="A4" s="11" t="s">
         <v>12</v>
       </c>
@@ -867,11 +885,17 @@
       <c r="K4" s="16">
         <v>56.950209963226392</v>
       </c>
-      <c r="L4" s="25">
+      <c r="L4" s="16">
         <v>65.056176253382603</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" ht="15" customHeight="1">
+      <c r="M4" s="20">
+        <v>77.900635634404523</v>
+      </c>
+      <c r="N4" s="24">
+        <v>85.246480545800821</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="15" customHeight="1">
       <c r="A5" s="12" t="s">
         <v>0</v>
       </c>
@@ -905,11 +929,17 @@
       <c r="K5" s="17">
         <v>27.274904549774693</v>
       </c>
-      <c r="L5" s="26">
+      <c r="L5" s="17">
         <v>33.015656998225161</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" ht="15" customHeight="1">
+      <c r="M5" s="21">
+        <v>38.762508542060516</v>
+      </c>
+      <c r="N5" s="25">
+        <v>39.648537743218611</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="15" customHeight="1">
       <c r="A6" s="12" t="s">
         <v>1</v>
       </c>
@@ -943,11 +973,17 @@
       <c r="K6" s="17">
         <v>2.727139871068319</v>
       </c>
-      <c r="L6" s="26">
+      <c r="L6" s="17">
         <v>2.8966857328160609</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" ht="15" customHeight="1">
+      <c r="M6" s="21">
+        <v>3.5190856627553311</v>
+      </c>
+      <c r="N6" s="25">
+        <v>4.0187117908185321</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="15" customHeight="1">
       <c r="A7" s="12" t="s">
         <v>2</v>
       </c>
@@ -981,11 +1017,17 @@
       <c r="K7" s="17">
         <v>2.2607347184618041</v>
       </c>
-      <c r="L7" s="26">
+      <c r="L7" s="17">
         <v>2.2634487176200975</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" ht="15" customHeight="1">
+      <c r="M7" s="21">
+        <v>2.7008196023009297</v>
+      </c>
+      <c r="N7" s="25">
+        <v>4.7673200478335529</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="15" customHeight="1">
       <c r="A8" s="12" t="s">
         <v>3</v>
       </c>
@@ -1019,11 +1061,17 @@
       <c r="K8" s="17">
         <v>6.133536097524007</v>
       </c>
-      <c r="L8" s="26">
+      <c r="L8" s="17">
         <v>7.1224347303517659</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" ht="15" customHeight="1">
+      <c r="M8" s="21">
+        <v>7.5393064036579123</v>
+      </c>
+      <c r="N8" s="25">
+        <v>9.3265934807751982</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="15" customHeight="1">
       <c r="A9" s="13" t="s">
         <v>17</v>
       </c>
@@ -1057,11 +1105,17 @@
       <c r="K9" s="17">
         <v>6.5019478910116186</v>
       </c>
-      <c r="L9" s="26">
+      <c r="L9" s="17">
         <v>7.6743859310587643</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" ht="15" customHeight="1">
+      <c r="M9" s="21">
+        <v>8.016765560688274</v>
+      </c>
+      <c r="N9" s="25">
+        <v>8.6478002727993015</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="15" customHeight="1">
       <c r="A10" s="12" t="s">
         <v>4</v>
       </c>
@@ -1095,11 +1149,17 @@
       <c r="K10" s="17">
         <v>5.0569192807782342</v>
       </c>
-      <c r="L10" s="26">
+      <c r="L10" s="17">
         <v>4.9005639407884045</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" ht="15" customHeight="1">
+      <c r="M10" s="21">
+        <v>7.9533185209378496</v>
+      </c>
+      <c r="N10" s="25">
+        <v>7.634717820588059</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="15" customHeight="1">
       <c r="A11" s="12" t="s">
         <v>5</v>
       </c>
@@ -1133,11 +1193,17 @@
       <c r="K11" s="17">
         <v>0.72954803164672866</v>
       </c>
-      <c r="L11" s="26">
+      <c r="L11" s="17">
         <v>0.5720188793690999</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" ht="15" customHeight="1">
+      <c r="M11" s="21">
+        <v>1.2697184948310851</v>
+      </c>
+      <c r="N11" s="25">
+        <v>1.2046981836509703</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="15" customHeight="1">
       <c r="A12" s="12" t="s">
         <v>6</v>
       </c>
@@ -1171,11 +1237,17 @@
       <c r="K12" s="17">
         <v>6.2654795229609954</v>
       </c>
-      <c r="L12" s="26">
+      <c r="L12" s="17">
         <v>6.6109813231532319</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" ht="15" customHeight="1">
+      <c r="M12" s="21">
+        <v>8.1391128471726084</v>
+      </c>
+      <c r="N12" s="25">
+        <v>9.9981012061165941</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="15" customHeight="1">
       <c r="A13" s="11" t="s">
         <v>13</v>
       </c>
@@ -1209,11 +1281,17 @@
       <c r="K13" s="16">
         <v>10.89512580714065</v>
       </c>
-      <c r="L13" s="25">
+      <c r="L13" s="16">
         <v>12.907865318947376</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" ht="15" customHeight="1">
+      <c r="M13" s="20">
+        <v>15.072818326955636</v>
+      </c>
+      <c r="N13" s="24">
+        <v>16.445945378099069</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="15" customHeight="1">
       <c r="A14" s="11" t="s">
         <v>14</v>
       </c>
@@ -1247,11 +1325,17 @@
       <c r="K14" s="16">
         <v>24.09090984620412</v>
       </c>
-      <c r="L14" s="25">
+      <c r="L14" s="16">
         <v>22.716713947664896</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" ht="15" customHeight="1">
+      <c r="M14" s="20">
+        <v>26.76057079426003</v>
+      </c>
+      <c r="N14" s="24">
+        <v>30.717895297223407</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="15" customHeight="1">
       <c r="A15" s="12" t="s">
         <v>7</v>
       </c>
@@ -1285,11 +1369,17 @@
       <c r="K15" s="17">
         <v>3.5815728874448141</v>
       </c>
-      <c r="L15" s="26">
+      <c r="L15" s="17">
         <v>3.2714818919588722</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" ht="15" customHeight="1">
+      <c r="M15" s="21">
+        <v>4.2241668120740261</v>
+      </c>
+      <c r="N15" s="25">
+        <v>5.9203571448046368</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="15" customHeight="1">
       <c r="A16" s="12" t="s">
         <v>8</v>
       </c>
@@ -1323,11 +1413,17 @@
       <c r="K16" s="17">
         <v>3.6167634269383755</v>
       </c>
-      <c r="L16" s="26">
+      <c r="L16" s="17">
         <v>2.9777435687573752</v>
       </c>
-    </row>
-    <row r="17" spans="1:12" ht="15" customHeight="1">
+      <c r="M16" s="21">
+        <v>4.5783068334725696</v>
+      </c>
+      <c r="N16" s="25">
+        <v>4.8372603284428921</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" ht="15" customHeight="1">
       <c r="A17" s="12" t="s">
         <v>9</v>
       </c>
@@ -1361,11 +1457,17 @@
       <c r="K17" s="17">
         <v>13.261250144564313</v>
       </c>
-      <c r="L17" s="26">
+      <c r="L17" s="17">
         <v>15.186197517648059</v>
       </c>
-    </row>
-    <row r="18" spans="1:12" ht="15" customHeight="1">
+      <c r="M17" s="21">
+        <v>16.848281427790322</v>
+      </c>
+      <c r="N17" s="25">
+        <v>18.461050804457347</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" ht="15" customHeight="1">
       <c r="A18" s="12" t="s">
         <v>10</v>
       </c>
@@ -1399,11 +1501,17 @@
       <c r="K18" s="17">
         <v>3.6313233872566228</v>
       </c>
-      <c r="L18" s="26">
+      <c r="L18" s="17">
         <v>1.2812909693005883</v>
       </c>
-    </row>
-    <row r="19" spans="1:12" ht="15" customHeight="1">
+      <c r="M18" s="21">
+        <v>1.1098157209231057</v>
+      </c>
+      <c r="N18" s="25">
+        <v>1.4992270195185344</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" ht="15" customHeight="1">
       <c r="A19" s="11" t="s">
         <v>15</v>
       </c>
@@ -1437,11 +1545,17 @@
       <c r="K19" s="16">
         <v>81.041119809430526</v>
       </c>
-      <c r="L19" s="25">
+      <c r="L19" s="16">
         <v>87.772890201047474</v>
       </c>
-    </row>
-    <row r="20" spans="1:12" ht="15" customHeight="1">
+      <c r="M19" s="20">
+        <v>104.66120642866456</v>
+      </c>
+      <c r="N19" s="24">
+        <v>115.96437584302423</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" ht="15" customHeight="1">
       <c r="A20" s="14" t="s">
         <v>16</v>
       </c>
@@ -1475,11 +1589,17 @@
       <c r="K20" s="18">
         <v>91.936245616571142</v>
       </c>
-      <c r="L20" s="27">
+      <c r="L20" s="18">
         <v>100.68075551999489</v>
       </c>
-    </row>
-    <row r="21" spans="1:12">
+      <c r="M20" s="22">
+        <v>119.73402475562018</v>
+      </c>
+      <c r="N20" s="26">
+        <v>132.4103212211233</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -1490,7 +1610,7 @@
       <c r="H21" s="3"/>
       <c r="I21" s="3"/>
     </row>
-    <row r="22" spans="1:12">
+    <row r="22" spans="1:14">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -1501,23 +1621,25 @@
       <c r="H22" s="3"/>
       <c r="I22" s="3"/>
     </row>
-    <row r="23" spans="1:12" ht="30" customHeight="1">
-      <c r="A23" s="20" t="s">
+    <row r="23" spans="1:14" ht="30" customHeight="1">
+      <c r="A23" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="B23" s="20"/>
-      <c r="C23" s="20"/>
-      <c r="D23" s="20"/>
-      <c r="E23" s="20"/>
-      <c r="F23" s="20"/>
-      <c r="G23" s="20"/>
-      <c r="H23" s="20"/>
-      <c r="I23" s="20"/>
-      <c r="J23" s="20"/>
-      <c r="K23" s="20"/>
-      <c r="L23" s="20"/>
-    </row>
-    <row r="24" spans="1:12" ht="15" customHeight="1">
+      <c r="B23" s="28"/>
+      <c r="C23" s="28"/>
+      <c r="D23" s="28"/>
+      <c r="E23" s="28"/>
+      <c r="F23" s="28"/>
+      <c r="G23" s="28"/>
+      <c r="H23" s="28"/>
+      <c r="I23" s="28"/>
+      <c r="J23" s="28"/>
+      <c r="K23" s="28"/>
+      <c r="L23" s="28"/>
+      <c r="M23" s="28"/>
+      <c r="N23" s="28"/>
+    </row>
+    <row r="24" spans="1:14" ht="15" customHeight="1">
       <c r="A24" s="5"/>
       <c r="B24" s="6">
         <v>2011</v>
@@ -1552,8 +1674,14 @@
       <c r="L24" s="7">
         <v>2021</v>
       </c>
-    </row>
-    <row r="25" spans="1:12" ht="15" customHeight="1">
+      <c r="M24" s="7">
+        <v>2022</v>
+      </c>
+      <c r="N24" s="32">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" ht="15" customHeight="1">
       <c r="A25" s="11" t="s">
         <v>11</v>
       </c>
@@ -1587,11 +1715,17 @@
       <c r="K25" s="15">
         <v>719.05708319357416</v>
       </c>
-      <c r="L25" s="24">
+      <c r="L25" s="15">
         <v>838.32721382941872</v>
       </c>
-    </row>
-    <row r="26" spans="1:12" ht="15" customHeight="1">
+      <c r="M25" s="19">
+        <v>1004.7343756314762</v>
+      </c>
+      <c r="N25" s="23">
+        <v>1103.2696452419218</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" ht="15" customHeight="1">
       <c r="A26" s="11" t="s">
         <v>12</v>
       </c>
@@ -1625,11 +1759,17 @@
       <c r="K26" s="16">
         <v>603.5853666053373</v>
       </c>
-      <c r="L26" s="25">
+      <c r="L26" s="16">
         <v>699.53227001830942</v>
       </c>
-    </row>
-    <row r="27" spans="1:12" ht="15" customHeight="1">
+      <c r="M26" s="20">
+        <v>841.84724962414953</v>
+      </c>
+      <c r="N26" s="24">
+        <v>924.84620654314006</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" ht="15" customHeight="1">
       <c r="A27" s="12" t="s">
         <v>0</v>
       </c>
@@ -1663,11 +1803,17 @@
       <c r="K27" s="17">
         <v>289.07238924020783</v>
       </c>
-      <c r="L27" s="26">
+      <c r="L27" s="17">
         <v>355.00883722648064</v>
       </c>
-    </row>
-    <row r="28" spans="1:12" ht="15" customHeight="1">
+      <c r="M27" s="21">
+        <v>418.89403005402966</v>
+      </c>
+      <c r="N27" s="25">
+        <v>430.15030640586969</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" ht="15" customHeight="1">
       <c r="A28" s="12" t="s">
         <v>1</v>
       </c>
@@ -1701,11 +1847,17 @@
       <c r="K28" s="17">
         <v>28.903523269285401</v>
       </c>
-      <c r="L28" s="26">
+      <c r="L28" s="17">
         <v>31.14731395085813</v>
       </c>
-    </row>
-    <row r="29" spans="1:12" ht="15" customHeight="1">
+      <c r="M28" s="21">
+        <v>38.029633035163094</v>
+      </c>
+      <c r="N28" s="25">
+        <v>43.599340771984394</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" ht="15" customHeight="1">
       <c r="A29" s="12" t="s">
         <v>2</v>
       </c>
@@ -1739,11 +1891,17 @@
       <c r="K29" s="17">
         <v>23.960340000876027</v>
       </c>
-      <c r="L29" s="26">
+      <c r="L29" s="17">
         <v>24.338279786686538</v>
       </c>
-    </row>
-    <row r="30" spans="1:12" ht="15" customHeight="1">
+      <c r="M29" s="21">
+        <v>29.186893475409164</v>
+      </c>
+      <c r="N29" s="25">
+        <v>51.721054445726409</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" ht="15" customHeight="1">
       <c r="A30" s="12" t="s">
         <v>3</v>
       </c>
@@ -1777,11 +1935,17 @@
       <c r="K30" s="17">
         <v>65.006127921242211</v>
       </c>
-      <c r="L30" s="26">
+      <c r="L30" s="17">
         <v>76.585702110353566</v>
       </c>
-    </row>
-    <row r="31" spans="1:12" ht="15" customHeight="1">
+      <c r="M30" s="21">
+        <v>81.47487255148981</v>
+      </c>
+      <c r="N30" s="25">
+        <v>101.18499374329669</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" ht="15" customHeight="1">
       <c r="A31" s="13" t="s">
         <v>17</v>
       </c>
@@ -1815,11 +1979,17 @@
       <c r="K31" s="17">
         <v>68.910731039958307</v>
       </c>
-      <c r="L31" s="26">
+      <c r="L31" s="17">
         <v>82.520690893986867</v>
       </c>
-    </row>
-    <row r="32" spans="1:12" ht="15" customHeight="1">
+      <c r="M31" s="21">
+        <v>86.634620926846523</v>
+      </c>
+      <c r="N31" s="25">
+        <v>93.820709383352181</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" ht="15" customHeight="1">
       <c r="A32" s="12" t="s">
         <v>4</v>
       </c>
@@ -1853,11 +2023,17 @@
       <c r="K32" s="17">
         <v>53.595631692192775</v>
       </c>
-      <c r="L32" s="26">
+      <c r="L32" s="17">
         <v>52.694499051369334</v>
       </c>
-    </row>
-    <row r="33" spans="1:12" ht="15" customHeight="1">
+      <c r="M32" s="21">
+        <v>85.94896906437188</v>
+      </c>
+      <c r="N32" s="25">
+        <v>82.829693017115318</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" ht="15" customHeight="1">
       <c r="A33" s="12" t="s">
         <v>5</v>
       </c>
@@ -1891,11 +2067,17 @@
       <c r="K33" s="17">
         <v>7.7320964474411946</v>
       </c>
-      <c r="L33" s="26">
+      <c r="L33" s="17">
         <v>6.150771352129544</v>
       </c>
-    </row>
-    <row r="34" spans="1:12" ht="15" customHeight="1">
+      <c r="M33" s="21">
+        <v>13.721441602697075</v>
+      </c>
+      <c r="N33" s="25">
+        <v>13.069871483789877</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" ht="15" customHeight="1">
       <c r="A34" s="12" t="s">
         <v>6</v>
       </c>
@@ -1929,11 +2111,17 @@
       <c r="K34" s="17">
         <v>66.404526994133661</v>
       </c>
-      <c r="L34" s="26">
+      <c r="L34" s="17">
         <v>71.086175646444815</v>
       </c>
-    </row>
-    <row r="35" spans="1:12" ht="15" customHeight="1">
+      <c r="M34" s="21">
+        <v>87.956788914142464</v>
+      </c>
+      <c r="N34" s="25">
+        <v>108.47023729200522</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" ht="15" customHeight="1">
       <c r="A35" s="11" t="s">
         <v>13</v>
       </c>
@@ -1967,11 +2155,17 @@
       <c r="K35" s="16">
         <v>115.47171658823684</v>
       </c>
-      <c r="L35" s="25">
+      <c r="L35" s="16">
         <v>138.79494381110942</v>
       </c>
-    </row>
-    <row r="36" spans="1:12" ht="15" customHeight="1">
+      <c r="M35" s="20">
+        <v>162.8871260073266</v>
+      </c>
+      <c r="N35" s="24">
+        <v>178.42343869878204</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" ht="15" customHeight="1">
       <c r="A36" s="11" t="s">
         <v>14</v>
       </c>
@@ -2005,11 +2199,17 @@
       <c r="K36" s="16">
         <v>255.32690152971404</v>
       </c>
-      <c r="L36" s="25">
+      <c r="L36" s="16">
         <v>244.26696111486206</v>
       </c>
-    </row>
-    <row r="37" spans="1:12" ht="15" customHeight="1">
+      <c r="M36" s="20">
+        <v>289.19292811996786</v>
+      </c>
+      <c r="N36" s="24">
+        <v>333.26101859844874</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" ht="15" customHeight="1">
       <c r="A37" s="12" t="s">
         <v>7</v>
       </c>
@@ -2043,11 +2243,17 @@
       <c r="K37" s="17">
         <v>37.959210083474879</v>
       </c>
-      <c r="L37" s="26">
+      <c r="L37" s="17">
         <v>35.177400302354734</v>
       </c>
-    </row>
-    <row r="38" spans="1:12" ht="15" customHeight="1">
+      <c r="M37" s="21">
+        <v>45.649219467056469</v>
+      </c>
+      <c r="N37" s="25">
+        <v>64.230450473686545</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" ht="15" customHeight="1">
       <c r="A38" s="12" t="s">
         <v>8</v>
       </c>
@@ -2081,11 +2287,17 @@
       <c r="K38" s="17">
         <v>38.332176130395091</v>
       </c>
-      <c r="L38" s="26">
+      <c r="L38" s="17">
         <v>32.018907936922616</v>
       </c>
-    </row>
-    <row r="39" spans="1:12" ht="15" customHeight="1">
+      <c r="M38" s="21">
+        <v>49.476297392265757</v>
+      </c>
+      <c r="N38" s="25">
+        <v>52.47984240731688</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" ht="15" customHeight="1">
       <c r="A39" s="12" t="s">
         <v>9</v>
       </c>
@@ -2119,11 +2331,17 @@
       <c r="K39" s="17">
         <v>140.54902581255502</v>
       </c>
-      <c r="L39" s="26">
+      <c r="L39" s="17">
         <v>163.29326182791766</v>
       </c>
-    </row>
-    <row r="40" spans="1:12" ht="15" customHeight="1">
+      <c r="M39" s="21">
+        <v>182.07398778418641</v>
+      </c>
+      <c r="N39" s="25">
+        <v>200.28548622754366</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" ht="15" customHeight="1">
       <c r="A40" s="12" t="s">
         <v>10</v>
       </c>
@@ -2157,11 +2375,17 @@
       <c r="K40" s="17">
         <v>38.486489503289121</v>
       </c>
-      <c r="L40" s="26">
+      <c r="L40" s="17">
         <v>13.777391047667011</v>
       </c>
-    </row>
-    <row r="41" spans="1:12" ht="15" customHeight="1">
+      <c r="M40" s="21">
+        <v>11.993423476459178</v>
+      </c>
+      <c r="N40" s="25">
+        <v>16.265239489901674</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" ht="15" customHeight="1">
       <c r="A41" s="11" t="s">
         <v>15</v>
       </c>
@@ -2195,11 +2419,17 @@
       <c r="K41" s="16">
         <v>858.91226813505148</v>
       </c>
-      <c r="L41" s="25">
+      <c r="L41" s="16">
         <v>943.79923113317147</v>
       </c>
-    </row>
-    <row r="42" spans="1:12" ht="15" customHeight="1">
+      <c r="M41" s="20">
+        <v>1131.0401777441177</v>
+      </c>
+      <c r="N41" s="24">
+        <v>1258.1072251415885</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" ht="15" customHeight="1">
       <c r="A42" s="14" t="s">
         <v>16</v>
       </c>
@@ -2233,11 +2463,17 @@
       <c r="K42" s="18">
         <v>974.38398472328799</v>
       </c>
-      <c r="L42" s="27">
+      <c r="L42" s="18">
         <v>1082.5941749442811</v>
       </c>
-    </row>
-    <row r="43" spans="1:12">
+      <c r="M42" s="22">
+        <v>1293.9273037514442</v>
+      </c>
+      <c r="N42" s="26">
+        <v>1436.5306638403706</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14">
       <c r="A43" s="3"/>
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
@@ -2248,7 +2484,7 @@
       <c r="H43" s="3"/>
       <c r="I43" s="3"/>
     </row>
-    <row r="44" spans="1:12">
+    <row r="44" spans="1:14">
       <c r="A44" s="3"/>
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
@@ -2259,23 +2495,25 @@
       <c r="H44" s="3"/>
       <c r="I44" s="3"/>
     </row>
-    <row r="45" spans="1:12" ht="30" customHeight="1">
-      <c r="A45" s="20" t="s">
+    <row r="45" spans="1:14" ht="30" customHeight="1">
+      <c r="A45" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="B45" s="20"/>
-      <c r="C45" s="20"/>
-      <c r="D45" s="20"/>
-      <c r="E45" s="20"/>
-      <c r="F45" s="20"/>
-      <c r="G45" s="20"/>
-      <c r="H45" s="20"/>
-      <c r="I45" s="20"/>
-      <c r="J45" s="20"/>
-      <c r="K45" s="20"/>
-      <c r="L45" s="20"/>
-    </row>
-    <row r="46" spans="1:12" ht="15" customHeight="1">
+      <c r="B45" s="28"/>
+      <c r="C45" s="28"/>
+      <c r="D45" s="28"/>
+      <c r="E45" s="28"/>
+      <c r="F45" s="28"/>
+      <c r="G45" s="28"/>
+      <c r="H45" s="28"/>
+      <c r="I45" s="28"/>
+      <c r="J45" s="28"/>
+      <c r="K45" s="28"/>
+      <c r="L45" s="28"/>
+      <c r="M45" s="28"/>
+      <c r="N45" s="28"/>
+    </row>
+    <row r="46" spans="1:14" ht="15" customHeight="1">
       <c r="A46" s="4"/>
       <c r="B46" s="6">
         <v>2011</v>
@@ -2310,8 +2548,14 @@
       <c r="L46" s="7">
         <v>2021</v>
       </c>
-    </row>
-    <row r="47" spans="1:12" ht="15" customHeight="1">
+      <c r="M46" s="7">
+        <v>2022</v>
+      </c>
+      <c r="N46" s="32">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" ht="15" customHeight="1">
       <c r="A47" s="11" t="s">
         <v>11</v>
       </c>
@@ -2345,11 +2589,17 @@
       <c r="K47" s="15">
         <v>218.0729699903859</v>
       </c>
-      <c r="L47" s="28">
+      <c r="L47" s="15">
         <v>252.83612201915005</v>
       </c>
-    </row>
-    <row r="48" spans="1:12" ht="15" customHeight="1">
+      <c r="M47" s="23">
+        <v>308.66348393749342</v>
+      </c>
+      <c r="N47" s="23">
+        <v>346.43110740012781</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" ht="15" customHeight="1">
       <c r="A48" s="11" t="s">
         <v>12</v>
       </c>
@@ -2383,11 +2633,17 @@
       <c r="K48" s="16">
         <v>183.05313530014618</v>
       </c>
-      <c r="L48" s="29">
+      <c r="L48" s="16">
         <v>210.97612419232621</v>
       </c>
-    </row>
-    <row r="49" spans="1:12" ht="15" customHeight="1">
+      <c r="M48" s="24">
+        <v>258.62308617526145</v>
+      </c>
+      <c r="N48" s="24">
+        <v>290.40542979616907</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" ht="15" customHeight="1">
       <c r="A49" s="12" t="s">
         <v>0</v>
       </c>
@@ -2421,11 +2677,17 @@
       <c r="K49" s="17">
         <v>87.668803961783055</v>
       </c>
-      <c r="L49" s="30">
+      <c r="L49" s="17">
         <v>107.06924003678476</v>
       </c>
-    </row>
-    <row r="50" spans="1:12" ht="15" customHeight="1">
+      <c r="M49" s="25">
+        <v>128.6880332285142</v>
+      </c>
+      <c r="N49" s="25">
+        <v>135.06892683883601</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" ht="15" customHeight="1">
       <c r="A50" s="12" t="s">
         <v>1</v>
       </c>
@@ -2459,11 +2721,17 @@
       <c r="K50" s="17">
         <v>8.7657535261668134</v>
       </c>
-      <c r="L50" s="30">
+      <c r="L50" s="17">
         <v>9.3939048389885205</v>
       </c>
-    </row>
-    <row r="51" spans="1:12" ht="15" customHeight="1">
+      <c r="M50" s="25">
+        <v>11.683047092043873</v>
+      </c>
+      <c r="N50" s="25">
+        <v>13.690368416002325</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" ht="15" customHeight="1">
       <c r="A51" s="12" t="s">
         <v>2</v>
       </c>
@@ -2497,11 +2765,17 @@
       <c r="K51" s="17">
         <v>7.2666032059152306</v>
       </c>
-      <c r="L51" s="30">
+      <c r="L51" s="17">
         <v>7.3403274716249545</v>
       </c>
-    </row>
-    <row r="52" spans="1:12" ht="15" customHeight="1">
+      <c r="M51" s="25">
+        <v>8.9664775526070475</v>
+      </c>
+      <c r="N51" s="25">
+        <v>16.240619185717144</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" ht="15" customHeight="1">
       <c r="A52" s="12" t="s">
         <v>3</v>
       </c>
@@ -2535,11 +2809,17 @@
       <c r="K52" s="17">
         <v>19.714817800555565</v>
       </c>
-      <c r="L52" s="30">
+      <c r="L52" s="17">
         <v>23.097940284252424</v>
       </c>
-    </row>
-    <row r="53" spans="1:12" ht="15" customHeight="1">
+      <c r="M52" s="25">
+        <v>25.029817457276074</v>
+      </c>
+      <c r="N52" s="25">
+        <v>31.772495133842661</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" ht="15" customHeight="1">
       <c r="A53" s="13" t="s">
         <v>17</v>
       </c>
@@ -2573,11 +2853,17 @@
       <c r="K53" s="17">
         <v>20.898991378194761</v>
       </c>
-      <c r="L53" s="30">
+      <c r="L53" s="17">
         <v>24.887909073916855</v>
       </c>
-    </row>
-    <row r="54" spans="1:12" ht="15" customHeight="1">
+      <c r="M53" s="25">
+        <v>26.61493880716267</v>
+      </c>
+      <c r="N53" s="25">
+        <v>29.460080216032068</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" ht="15" customHeight="1">
       <c r="A54" s="12" t="s">
         <v>4</v>
       </c>
@@ -2611,11 +2897,17 @@
       <c r="K54" s="17">
         <v>16.25428474985333</v>
       </c>
-      <c r="L54" s="30">
+      <c r="L54" s="17">
         <v>15.892449358802462</v>
       </c>
-    </row>
-    <row r="55" spans="1:12" ht="15" customHeight="1">
+      <c r="M54" s="25">
+        <v>26.404300356072902</v>
+      </c>
+      <c r="N54" s="25">
+        <v>26.008856856783893</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" ht="15" customHeight="1">
       <c r="A55" s="12" t="s">
         <v>5</v>
       </c>
@@ -2649,11 +2941,17 @@
       <c r="K55" s="17">
         <v>2.3449615836573146</v>
       </c>
-      <c r="L55" s="30">
+      <c r="L55" s="17">
         <v>1.8550479460104392</v>
       </c>
-    </row>
-    <row r="56" spans="1:12" ht="15" customHeight="1">
+      <c r="M55" s="25">
+        <v>4.2153509150828539</v>
+      </c>
+      <c r="N55" s="25">
+        <v>4.1039922300353266</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" ht="15" customHeight="1">
       <c r="A56" s="12" t="s">
         <v>6</v>
       </c>
@@ -2687,11 +2985,17 @@
       <c r="K56" s="17">
         <v>20.13891909402011</v>
       </c>
-      <c r="L56" s="30">
+      <c r="L56" s="17">
         <v>21.439305181945805</v>
       </c>
-    </row>
-    <row r="57" spans="1:12" ht="15" customHeight="1">
+      <c r="M56" s="25">
+        <v>27.021120766501813</v>
+      </c>
+      <c r="N56" s="25">
+        <v>34.060090918919585</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" ht="15" customHeight="1">
       <c r="A57" s="11" t="s">
         <v>13</v>
       </c>
@@ -2725,11 +3029,17 @@
       <c r="K57" s="16">
         <v>35.019834690239726</v>
       </c>
-      <c r="L57" s="29">
+      <c r="L57" s="16">
         <v>41.859997826823815</v>
       </c>
-    </row>
-    <row r="58" spans="1:12" ht="15" customHeight="1">
+      <c r="M57" s="24">
+        <v>50.040397762232026</v>
+      </c>
+      <c r="N57" s="24">
+        <v>56.025677603958783</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" ht="15" customHeight="1">
       <c r="A58" s="11" t="s">
         <v>14</v>
       </c>
@@ -2763,11 +3073,17 @@
       <c r="K58" s="16">
         <v>77.434597386530726</v>
       </c>
-      <c r="L58" s="29">
+      <c r="L58" s="16">
         <v>73.669934802153449</v>
       </c>
-    </row>
-    <row r="59" spans="1:12" ht="15" customHeight="1">
+      <c r="M58" s="24">
+        <v>88.842682094451447</v>
+      </c>
+      <c r="N58" s="24">
+        <v>104.64530065180865</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" ht="15" customHeight="1">
       <c r="A59" s="12" t="s">
         <v>7</v>
       </c>
@@ -2801,11 +3117,17 @@
       <c r="K59" s="17">
         <v>11.512128695857545</v>
       </c>
-      <c r="L59" s="30">
+      <c r="L59" s="17">
         <v>10.609362702822152</v>
       </c>
-    </row>
-    <row r="60" spans="1:12" ht="15" customHeight="1">
+      <c r="M59" s="25">
+        <v>14.023852932147532</v>
+      </c>
+      <c r="N59" s="25">
+        <v>20.168619867656254</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" ht="15" customHeight="1">
       <c r="A60" s="12" t="s">
         <v>8</v>
       </c>
@@ -2839,11 +3161,17 @@
       <c r="K60" s="17">
         <v>11.625240457716886</v>
       </c>
-      <c r="L60" s="30">
+      <c r="L60" s="17">
         <v>9.6567740859560853</v>
       </c>
-    </row>
-    <row r="61" spans="1:12" ht="15" customHeight="1">
+      <c r="M60" s="25">
+        <v>15.199565871154856</v>
+      </c>
+      <c r="N60" s="25">
+        <v>16.478881658494625</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" ht="15" customHeight="1">
       <c r="A61" s="12" t="s">
         <v>9</v>
       </c>
@@ -2877,11 +3205,17 @@
       <c r="K61" s="17">
         <v>42.625188186830151</v>
       </c>
-      <c r="L61" s="30">
+      <c r="L61" s="17">
         <v>49.248592186140442</v>
       </c>
-    </row>
-    <row r="62" spans="1:12" ht="15" customHeight="1">
+      <c r="M61" s="25">
+        <v>55.934775167355177</v>
+      </c>
+      <c r="N61" s="25">
+        <v>62.890448485752025</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" ht="15" customHeight="1">
       <c r="A62" s="12" t="s">
         <v>10</v>
       </c>
@@ -2915,11 +3249,17 @@
       <c r="K62" s="17">
         <v>11.672040046126163</v>
       </c>
-      <c r="L62" s="30">
+      <c r="L62" s="17">
         <v>4.1552058272347603</v>
       </c>
-    </row>
-    <row r="63" spans="1:12" ht="15" customHeight="1">
+      <c r="M62" s="25">
+        <v>3.6844881237938609</v>
+      </c>
+      <c r="N62" s="25">
+        <v>5.1073506399057571</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" ht="15" customHeight="1">
       <c r="A63" s="11" t="s">
         <v>15</v>
       </c>
@@ -2953,11 +3293,17 @@
       <c r="K63" s="16">
         <v>260.48773268667691</v>
       </c>
-      <c r="L63" s="29">
+      <c r="L63" s="16">
         <v>284.64605899447963</v>
       </c>
-    </row>
-    <row r="64" spans="1:12" ht="15" customHeight="1">
+      <c r="M63" s="24">
+        <v>347.4657682697129</v>
+      </c>
+      <c r="N63" s="24">
+        <v>395.0507304479778</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" ht="15" customHeight="1">
       <c r="A64" s="14" t="s">
         <v>16</v>
       </c>
@@ -2991,105 +3337,117 @@
       <c r="K64" s="18">
         <v>295.5075673769166</v>
       </c>
-      <c r="L64" s="31">
+      <c r="L64" s="18">
         <v>326.50605682130345</v>
       </c>
-    </row>
-    <row r="65" spans="1:12" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A65" s="21" t="s">
+      <c r="M64" s="26">
+        <v>397.50616603194493</v>
+      </c>
+      <c r="N64" s="26">
+        <v>451.07640805193648</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" s="2" customFormat="1" ht="15" customHeight="1">
+      <c r="A65" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="B65" s="21"/>
-      <c r="C65" s="21"/>
-      <c r="D65" s="21"/>
-      <c r="E65" s="21"/>
-      <c r="F65" s="21"/>
-      <c r="G65" s="21"/>
-      <c r="H65" s="21"/>
-      <c r="I65" s="21"/>
-      <c r="J65" s="21"/>
-      <c r="K65" s="21"/>
-      <c r="L65" s="21"/>
-    </row>
-    <row r="66" spans="1:12" ht="15" customHeight="1">
-      <c r="A66" s="22" t="s">
+      <c r="B65" s="29"/>
+      <c r="C65" s="29"/>
+      <c r="D65" s="29"/>
+      <c r="E65" s="29"/>
+      <c r="F65" s="29"/>
+      <c r="G65" s="29"/>
+      <c r="H65" s="29"/>
+      <c r="I65" s="29"/>
+      <c r="J65" s="29"/>
+      <c r="K65" s="29"/>
+      <c r="L65" s="29"/>
+      <c r="M65" s="29"/>
+      <c r="N65" s="29"/>
+    </row>
+    <row r="66" spans="1:14" ht="15" customHeight="1">
+      <c r="A66" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="B66" s="22"/>
-      <c r="C66" s="22"/>
-      <c r="D66" s="22"/>
-      <c r="E66" s="22"/>
-      <c r="F66" s="22"/>
-      <c r="G66" s="22"/>
-      <c r="H66" s="22"/>
-      <c r="I66" s="22"/>
-      <c r="J66" s="22"/>
-      <c r="K66" s="22"/>
-      <c r="L66" s="22"/>
-    </row>
-    <row r="67" spans="1:12" ht="45" customHeight="1">
-      <c r="A67" s="23" t="s">
+      <c r="B66" s="30"/>
+      <c r="C66" s="30"/>
+      <c r="D66" s="30"/>
+      <c r="E66" s="30"/>
+      <c r="F66" s="30"/>
+      <c r="G66" s="30"/>
+      <c r="H66" s="30"/>
+      <c r="I66" s="30"/>
+      <c r="J66" s="30"/>
+      <c r="K66" s="30"/>
+      <c r="L66" s="30"/>
+      <c r="M66" s="30"/>
+      <c r="N66" s="30"/>
+    </row>
+    <row r="67" spans="1:14" ht="45" customHeight="1">
+      <c r="A67" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="B67" s="23"/>
-      <c r="C67" s="23"/>
-      <c r="D67" s="23"/>
-      <c r="E67" s="23"/>
-      <c r="F67" s="23"/>
-      <c r="G67" s="23"/>
-      <c r="H67" s="23"/>
-      <c r="I67" s="23"/>
-      <c r="J67" s="23"/>
-      <c r="K67" s="23"/>
-      <c r="L67" s="23"/>
-    </row>
-    <row r="68" spans="1:12">
-      <c r="A68" s="19"/>
-      <c r="B68" s="19"/>
-      <c r="C68" s="19"/>
-      <c r="D68" s="19"/>
-      <c r="E68" s="19"/>
-      <c r="F68" s="19"/>
-      <c r="G68" s="19"/>
-      <c r="H68" s="19"/>
-      <c r="I68" s="19"/>
-      <c r="J68" s="19"/>
-    </row>
-    <row r="69" spans="1:12">
-      <c r="A69" s="19"/>
-      <c r="B69" s="19"/>
-      <c r="C69" s="19"/>
-      <c r="D69" s="19"/>
-      <c r="E69" s="19"/>
-      <c r="F69" s="19"/>
-      <c r="G69" s="19"/>
-      <c r="H69" s="19"/>
-      <c r="I69" s="19"/>
-      <c r="J69" s="19"/>
-    </row>
-    <row r="70" spans="1:12">
-      <c r="A70" s="19"/>
-      <c r="B70" s="19"/>
-      <c r="C70" s="19"/>
-      <c r="D70" s="19"/>
-      <c r="E70" s="19"/>
-      <c r="F70" s="19"/>
-      <c r="G70" s="19"/>
-      <c r="H70" s="19"/>
-      <c r="I70" s="19"/>
-      <c r="J70" s="19"/>
+      <c r="B67" s="31"/>
+      <c r="C67" s="31"/>
+      <c r="D67" s="31"/>
+      <c r="E67" s="31"/>
+      <c r="F67" s="31"/>
+      <c r="G67" s="31"/>
+      <c r="H67" s="31"/>
+      <c r="I67" s="31"/>
+      <c r="J67" s="31"/>
+      <c r="K67" s="31"/>
+      <c r="L67" s="31"/>
+      <c r="M67" s="31"/>
+      <c r="N67" s="31"/>
+    </row>
+    <row r="68" spans="1:14">
+      <c r="A68" s="27"/>
+      <c r="B68" s="27"/>
+      <c r="C68" s="27"/>
+      <c r="D68" s="27"/>
+      <c r="E68" s="27"/>
+      <c r="F68" s="27"/>
+      <c r="G68" s="27"/>
+      <c r="H68" s="27"/>
+      <c r="I68" s="27"/>
+      <c r="J68" s="27"/>
+    </row>
+    <row r="69" spans="1:14">
+      <c r="A69" s="27"/>
+      <c r="B69" s="27"/>
+      <c r="C69" s="27"/>
+      <c r="D69" s="27"/>
+      <c r="E69" s="27"/>
+      <c r="F69" s="27"/>
+      <c r="G69" s="27"/>
+      <c r="H69" s="27"/>
+      <c r="I69" s="27"/>
+      <c r="J69" s="27"/>
+    </row>
+    <row r="70" spans="1:14">
+      <c r="A70" s="27"/>
+      <c r="B70" s="27"/>
+      <c r="C70" s="27"/>
+      <c r="D70" s="27"/>
+      <c r="E70" s="27"/>
+      <c r="F70" s="27"/>
+      <c r="G70" s="27"/>
+      <c r="H70" s="27"/>
+      <c r="I70" s="27"/>
+      <c r="J70" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="9">
     <mergeCell ref="A68:J68"/>
     <mergeCell ref="A69:J69"/>
     <mergeCell ref="A70:J70"/>
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="A23:L23"/>
-    <mergeCell ref="A45:L45"/>
-    <mergeCell ref="A65:L65"/>
-    <mergeCell ref="A66:L66"/>
-    <mergeCell ref="A67:L67"/>
+    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="A23:N23"/>
+    <mergeCell ref="A45:N45"/>
+    <mergeCell ref="A65:N65"/>
+    <mergeCell ref="A66:N66"/>
+    <mergeCell ref="A67:N67"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
